--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,25 +515,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.480007310623478E-10</v>
+        <v>1.052939957446597E-10</v>
       </c>
       <c r="C3">
-        <v>-18.171261649752</v>
+        <v>7.469150331105293</v>
       </c>
       <c r="D3">
-        <v>-10.031590649752</v>
+        <v>-10.70211131889471</v>
       </c>
       <c r="E3">
-        <v>-7.884019781751999</v>
+        <v>-2.562440318894706</v>
       </c>
       <c r="F3">
-        <v>-11.324049649752</v>
+        <v>-0.4148694508947059</v>
       </c>
       <c r="G3">
-        <v>-11.385223649752</v>
+        <v>-3.854899318894706</v>
       </c>
       <c r="H3">
-        <v>-9.343767649751999</v>
+        <v>-3.916073318894706</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.503854694107076E-07</v>
+        <v>2.480007310623478E-10</v>
       </c>
       <c r="C4">
-        <v>8.139671150385469</v>
+        <v>-18.171261649752</v>
       </c>
       <c r="D4">
-        <v>10.28724201838547</v>
+        <v>-10.031590649752</v>
       </c>
       <c r="E4">
-        <v>6.84721215038547</v>
+        <v>-7.884019781751999</v>
       </c>
       <c r="F4">
-        <v>6.78603815038547</v>
+        <v>-11.324049649752</v>
       </c>
       <c r="G4">
-        <v>8.827494150385469</v>
+        <v>-11.385223649752</v>
       </c>
       <c r="H4">
-        <v>8.24489915038547</v>
+        <v>-9.343767649751999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,25 +567,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-3.965936795080616E-07</v>
+        <v>1.503854694107076E-07</v>
       </c>
       <c r="C5">
-        <v>2.14757047140632</v>
+        <v>8.139671150385469</v>
       </c>
       <c r="D5">
-        <v>-1.292459396593679</v>
+        <v>10.28724201838547</v>
       </c>
       <c r="E5">
-        <v>-1.35363339659368</v>
+        <v>6.84721215038547</v>
       </c>
       <c r="F5">
-        <v>0.6878226034063205</v>
+        <v>6.78603815038547</v>
       </c>
       <c r="G5">
-        <v>0.1052276034063205</v>
+        <v>8.827494150385469</v>
       </c>
       <c r="H5">
-        <v>0.2009027474063205</v>
+        <v>8.24489915038547</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,25 +593,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-3.930720193778825E-10</v>
+        <v>-3.965936795080616E-07</v>
       </c>
       <c r="C6">
-        <v>-3.440029868393072</v>
+        <v>2.14757047140632</v>
       </c>
       <c r="D6">
-        <v>-3.501203868393072</v>
+        <v>-1.292459396593679</v>
       </c>
       <c r="E6">
-        <v>-1.459747868393072</v>
+        <v>-1.35363339659368</v>
       </c>
       <c r="F6">
-        <v>-2.042342868393072</v>
+        <v>0.6878226034063205</v>
       </c>
       <c r="G6">
-        <v>-1.946667724393072</v>
+        <v>0.1052276034063205</v>
       </c>
       <c r="H6">
-        <v>-2.207086868393072</v>
+        <v>0.2009027474063205</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,25 +619,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.181302580199883E-07</v>
+        <v>-3.930720193778825E-10</v>
       </c>
       <c r="C7">
-        <v>-0.06117388186974204</v>
+        <v>-3.440029868393072</v>
       </c>
       <c r="D7">
-        <v>1.980282118130258</v>
+        <v>-3.501203868393072</v>
       </c>
       <c r="E7">
-        <v>1.397687118130258</v>
+        <v>-1.459747868393072</v>
       </c>
       <c r="F7">
-        <v>1.493362262130258</v>
+        <v>-2.042342868393072</v>
       </c>
       <c r="G7">
-        <v>1.232943118130258</v>
+        <v>-1.946667724393072</v>
       </c>
       <c r="H7">
-        <v>2.068398118130258</v>
+        <v>-2.207086868393072</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2.965444589886346E-07</v>
+        <v>1.181302580199883E-07</v>
       </c>
       <c r="C8">
-        <v>2.041456296544459</v>
+        <v>-0.06117388186974204</v>
       </c>
       <c r="D8">
-        <v>1.458861296544459</v>
+        <v>1.980282118130258</v>
       </c>
       <c r="E8">
-        <v>1.554536440544459</v>
+        <v>1.397687118130258</v>
       </c>
       <c r="F8">
-        <v>1.294117296544459</v>
+        <v>1.493362262130258</v>
       </c>
       <c r="G8">
-        <v>2.129572296544459</v>
+        <v>1.232943118130258</v>
       </c>
       <c r="H8">
-        <v>2.029499343544459</v>
+        <v>2.068398118130258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -668,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>3.593882045849206E-07</v>
+        <v>2.965444589886346E-07</v>
       </c>
       <c r="C9">
-        <v>-0.5825946406117954</v>
+        <v>2.041456296544459</v>
       </c>
       <c r="D9">
-        <v>-0.4869194966117955</v>
+        <v>1.458861296544459</v>
       </c>
       <c r="E9">
-        <v>-0.7473386406117954</v>
+        <v>1.554536440544459</v>
       </c>
       <c r="F9">
-        <v>0.08811635938820461</v>
+        <v>1.294117296544459</v>
       </c>
       <c r="G9">
-        <v>-0.01195659361179541</v>
+        <v>2.129572296544459</v>
       </c>
       <c r="H9">
-        <v>-0.3657496406117954</v>
+        <v>2.029499343544459</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,25 +697,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-1.035781544145298E-07</v>
+        <v>3.593882045849206E-07</v>
       </c>
       <c r="C10">
-        <v>0.09567504042184558</v>
+        <v>-0.5825946406117954</v>
       </c>
       <c r="D10">
-        <v>-0.1647441035781544</v>
+        <v>-0.4869194966117955</v>
       </c>
       <c r="E10">
-        <v>0.6707108964218456</v>
+        <v>-0.7473386406117954</v>
       </c>
       <c r="F10">
-        <v>0.5706379434218456</v>
+        <v>0.08811635938820461</v>
       </c>
       <c r="G10">
-        <v>0.2168448964218456</v>
+        <v>-0.01195659361179541</v>
       </c>
       <c r="H10">
-        <v>0.3650228964218456</v>
+        <v>-0.3657496406117954</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,25 +723,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-3.87512216759589E-10</v>
+        <v>-1.035781544145298E-07</v>
       </c>
       <c r="C11">
-        <v>-0.2604191443875122</v>
+        <v>0.09567504042184558</v>
       </c>
       <c r="D11">
-        <v>0.5750358556124878</v>
+        <v>-0.1647441035781544</v>
       </c>
       <c r="E11">
-        <v>0.4749629026124878</v>
+        <v>0.6707108964218456</v>
       </c>
       <c r="F11">
-        <v>0.1211698556124878</v>
+        <v>0.5706379434218456</v>
       </c>
       <c r="G11">
-        <v>0.2693478556124878</v>
+        <v>0.2168448964218456</v>
       </c>
       <c r="H11">
-        <v>0.4267938556124878</v>
+        <v>0.3650228964218456</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -746,25 +749,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-1.07388789361007E-07</v>
+        <v>-3.87512216759589E-10</v>
       </c>
       <c r="C12">
-        <v>0.8354548926112106</v>
+        <v>-0.2604191443875122</v>
       </c>
       <c r="D12">
-        <v>0.7353819396112107</v>
+        <v>0.5750358556124878</v>
       </c>
       <c r="E12">
-        <v>0.3815888926112106</v>
+        <v>0.4749629026124878</v>
       </c>
       <c r="F12">
-        <v>0.5297668926112107</v>
+        <v>0.1211698556124878</v>
       </c>
       <c r="G12">
-        <v>0.6872128926112107</v>
+        <v>0.2693478556124878</v>
       </c>
       <c r="H12">
-        <v>0.1865498926112106</v>
+        <v>0.4267938556124878</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -772,25 +775,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-1.035472805832605E-07</v>
+        <v>-1.07388789361007E-07</v>
       </c>
       <c r="C13">
-        <v>-0.1000730565472806</v>
+        <v>0.8354548926112106</v>
       </c>
       <c r="D13">
-        <v>-0.4538661035472806</v>
+        <v>0.7353819396112107</v>
       </c>
       <c r="E13">
-        <v>-0.3056881035472806</v>
+        <v>0.3815888926112106</v>
       </c>
       <c r="F13">
-        <v>-0.1482421035472806</v>
+        <v>0.5297668926112107</v>
       </c>
       <c r="G13">
-        <v>-0.6489051035472806</v>
+        <v>0.6872128926112107</v>
       </c>
       <c r="H13">
-        <v>-0.3685441035472806</v>
+        <v>0.1865498926112106</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -798,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>6.303355340908645E-06</v>
+        <v>-1.035472805832605E-07</v>
       </c>
       <c r="C14">
-        <v>-0.3537867436446591</v>
+        <v>-0.1000730565472806</v>
       </c>
       <c r="D14">
-        <v>-0.2056087436446591</v>
+        <v>-0.4538661035472806</v>
       </c>
       <c r="E14">
-        <v>-0.04816274364465911</v>
+        <v>-0.3056881035472806</v>
       </c>
       <c r="F14">
-        <v>-0.5488257436446591</v>
+        <v>-0.1482421035472806</v>
       </c>
       <c r="G14">
-        <v>-0.2684647436446591</v>
+        <v>-0.6489051035472806</v>
       </c>
       <c r="H14">
-        <v>-0.4404397436446591</v>
+        <v>-0.3685441035472806</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -824,25 +827,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-2.375649628613696E-07</v>
+        <v>6.303355340908645E-06</v>
       </c>
       <c r="C15">
-        <v>0.1481777624350372</v>
+        <v>-0.3537867436446591</v>
       </c>
       <c r="D15">
-        <v>0.3056237624350371</v>
+        <v>-0.2056087436446591</v>
       </c>
       <c r="E15">
-        <v>-0.1950392375649629</v>
+        <v>-0.04816274364465911</v>
       </c>
       <c r="F15">
-        <v>0.08532176243503714</v>
+        <v>-0.5488257436446591</v>
       </c>
       <c r="G15">
-        <v>-0.08665323756496286</v>
+        <v>-0.2684647436446591</v>
       </c>
       <c r="H15">
-        <v>0.2192097624350371</v>
+        <v>-0.4404397436446591</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -850,117 +853,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>3.720025918141356E-07</v>
+        <v>-2.375649628613696E-07</v>
       </c>
       <c r="C16">
-        <v>0.1574463720025918</v>
+        <v>0.1481777624350372</v>
       </c>
       <c r="D16">
-        <v>-0.3432166279974082</v>
+        <v>0.3056237624350371</v>
       </c>
       <c r="E16">
-        <v>-0.06285562799740819</v>
+        <v>-0.1950392375649629</v>
       </c>
       <c r="F16">
-        <v>-0.2348306279974082</v>
+        <v>0.08532176243503714</v>
       </c>
       <c r="G16">
-        <v>0.0710323720025918</v>
+        <v>-0.08665323756496286</v>
       </c>
       <c r="H16">
-        <v>-0.5412976279974082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.2192097624350371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>3.829984367986761E-07</v>
+        <v>3.720025918141356E-07</v>
       </c>
       <c r="C17">
-        <v>-0.5006626170015632</v>
+        <v>0.1574463720025918</v>
       </c>
       <c r="D17">
-        <v>-0.2203016170015632</v>
+        <v>-0.3432166279974082</v>
       </c>
       <c r="E17">
-        <v>-0.3922766170015632</v>
+        <v>-0.06285562799740819</v>
       </c>
       <c r="F17">
-        <v>-0.08641361700156319</v>
+        <v>-0.2348306279974082</v>
       </c>
       <c r="G17">
-        <v>-0.6987436170015632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.0710323720025918</v>
+      </c>
+      <c r="H17">
+        <v>-0.5412976279974082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-3.160475492397508E-06</v>
+        <v>3.829984367986761E-07</v>
       </c>
       <c r="C18">
-        <v>0.2803578395245076</v>
+        <v>-0.5006626170015632</v>
       </c>
       <c r="D18">
-        <v>0.1083828395245076</v>
+        <v>-0.2203016170015632</v>
       </c>
       <c r="E18">
-        <v>0.4142458395245076</v>
+        <v>-0.3922766170015632</v>
       </c>
       <c r="F18">
-        <v>-0.1980841604754924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.08641361700156319</v>
+      </c>
+      <c r="G18">
+        <v>-0.6987436170015632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-4.101096154340844E-08</v>
+        <v>-3.160475492397508E-06</v>
       </c>
       <c r="C19">
-        <v>-0.1719750410109616</v>
+        <v>0.2803578395245076</v>
       </c>
       <c r="D19">
-        <v>0.1338879589890384</v>
+        <v>0.1083828395245076</v>
       </c>
       <c r="E19">
-        <v>-0.4784420410109615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.4142458395245076</v>
+      </c>
+      <c r="F19">
+        <v>-0.1980841604754924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-1.831659499074156E-07</v>
+        <v>-4.101096154340844E-08</v>
       </c>
       <c r="C20">
-        <v>0.3058628168340501</v>
+        <v>-0.1719750410109616</v>
       </c>
       <c r="D20">
-        <v>-0.3064671831659499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.1338879589890384</v>
+      </c>
+      <c r="E20">
+        <v>-0.4784420410109615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>2.770877186031306E-07</v>
+        <v>-1.831659499074156E-07</v>
       </c>
       <c r="C21">
-        <v>-0.6123297229122814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.3058628168340501</v>
+      </c>
+      <c r="D21">
+        <v>-0.3064671831659499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>2.770877186031306E-07</v>
+      </c>
+      <c r="C22">
+        <v>-0.6123297229122814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>2.29775004800814E-07</v>
       </c>
     </row>
